--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gnai2-Ednra.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gnai2-Ednra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>195.435389</v>
+        <v>197.5433703333333</v>
       </c>
       <c r="H2">
-        <v>586.306167</v>
+        <v>592.6301109999999</v>
       </c>
       <c r="I2">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585983</v>
       </c>
       <c r="J2">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585982</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.373217333333334</v>
+        <v>2.161420333333333</v>
       </c>
       <c r="N2">
-        <v>4.119652</v>
+        <v>6.484261</v>
       </c>
       <c r="O2">
-        <v>0.04216891968544611</v>
+        <v>0.06892252797869364</v>
       </c>
       <c r="P2">
-        <v>0.04216891968544611</v>
+        <v>0.06892252797869362</v>
       </c>
       <c r="Q2">
-        <v>268.3752637215427</v>
+        <v>426.9742573536635</v>
       </c>
       <c r="R2">
-        <v>2415.377373493884</v>
+        <v>3842.76831618297</v>
       </c>
       <c r="S2">
-        <v>0.0130544084553409</v>
+        <v>0.02335580298194143</v>
       </c>
       <c r="T2">
-        <v>0.0130544084553409</v>
+        <v>0.02335580298194142</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>195.435389</v>
+        <v>197.5433703333333</v>
       </c>
       <c r="H3">
-        <v>586.306167</v>
+        <v>592.6301109999999</v>
       </c>
       <c r="I3">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585983</v>
       </c>
       <c r="J3">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585982</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>77.106487</v>
       </c>
       <c r="O3">
-        <v>0.7892650295534415</v>
+        <v>0.8195805208328716</v>
       </c>
       <c r="P3">
-        <v>0.7892650295534415</v>
+        <v>0.8195805208328716</v>
       </c>
       <c r="Q3">
-        <v>5023.112093756147</v>
+        <v>5077.291772181117</v>
       </c>
       <c r="R3">
-        <v>45208.00884380533</v>
+        <v>45695.62594963006</v>
       </c>
       <c r="S3">
-        <v>0.2443360691277887</v>
+        <v>0.2777315593868951</v>
       </c>
       <c r="T3">
-        <v>0.2443360691277888</v>
+        <v>0.277731559386895</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>195.435389</v>
+        <v>197.5433703333333</v>
       </c>
       <c r="H4">
-        <v>586.306167</v>
+        <v>592.6301109999999</v>
       </c>
       <c r="I4">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585983</v>
       </c>
       <c r="J4">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585982</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.08316866666666667</v>
+        <v>3.456060333333333</v>
       </c>
       <c r="N4">
-        <v>0.249506</v>
+        <v>10.368181</v>
       </c>
       <c r="O4">
-        <v>0.00255395321620295</v>
+        <v>0.1102055029957399</v>
       </c>
       <c r="P4">
-        <v>0.00255395321620295</v>
+        <v>0.1102055029957399</v>
       </c>
       <c r="Q4">
-        <v>16.25410072261133</v>
+        <v>682.72180632201</v>
       </c>
       <c r="R4">
-        <v>146.286906503502</v>
+        <v>6144.49625689809</v>
       </c>
       <c r="S4">
-        <v>0.0007906379558414853</v>
+        <v>0.03734538025491393</v>
       </c>
       <c r="T4">
-        <v>0.0007906379558414855</v>
+        <v>0.03734538025491392</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,61 +726,61 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>195.435389</v>
+        <v>197.5433703333333</v>
       </c>
       <c r="H5">
-        <v>586.306167</v>
+        <v>592.6301109999999</v>
       </c>
       <c r="I5">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585983</v>
       </c>
       <c r="J5">
-        <v>0.3095741734129938</v>
+        <v>0.3388703761585982</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>5.234191333333333</v>
+        <v>0.0405</v>
       </c>
       <c r="N5">
-        <v>15.702574</v>
+        <v>0.1215</v>
       </c>
       <c r="O5">
-        <v>0.1607321642363904</v>
+        <v>0.001291448192694785</v>
       </c>
       <c r="P5">
-        <v>0.1607321642363904</v>
+        <v>0.001291448192694784</v>
       </c>
       <c r="Q5">
-        <v>1022.946219330429</v>
+        <v>8.0005064985</v>
       </c>
       <c r="R5">
-        <v>9206.515973973857</v>
+        <v>72.00455848649999</v>
       </c>
       <c r="S5">
-        <v>0.04975852688436212</v>
+        <v>0.0004376335348478236</v>
       </c>
       <c r="T5">
-        <v>0.04975852688436213</v>
+        <v>0.0004376335348478234</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>195.435389</v>
+        <v>79.82725266666667</v>
       </c>
       <c r="H6">
-        <v>586.306167</v>
+        <v>239.481758</v>
       </c>
       <c r="I6">
-        <v>0.3095741734129938</v>
+        <v>0.1369374790620155</v>
       </c>
       <c r="J6">
-        <v>0.3095741734129938</v>
+        <v>0.1369374790620154</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1719393333333333</v>
+        <v>2.161420333333333</v>
       </c>
       <c r="N6">
-        <v>0.515818</v>
+        <v>6.484261</v>
       </c>
       <c r="O6">
-        <v>0.005279933308519127</v>
+        <v>0.06892252797869364</v>
       </c>
       <c r="P6">
-        <v>0.005279933308519127</v>
+        <v>0.06892252797869362</v>
       </c>
       <c r="Q6">
-        <v>33.60303049440066</v>
+        <v>172.5402470678709</v>
       </c>
       <c r="R6">
-        <v>302.427274449606</v>
+        <v>1552.862223610838</v>
       </c>
       <c r="S6">
-        <v>0.001634530989660542</v>
+        <v>0.009438077231983536</v>
       </c>
       <c r="T6">
-        <v>0.001634530989660542</v>
+        <v>0.009438077231983533</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,40 +856,40 @@
         <v>239.481758</v>
       </c>
       <c r="I7">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620155</v>
       </c>
       <c r="J7">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620154</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>1.373217333333334</v>
+        <v>25.70216233333333</v>
       </c>
       <c r="N7">
-        <v>4.119652</v>
+        <v>77.106487</v>
       </c>
       <c r="O7">
-        <v>0.04216891968544611</v>
+        <v>0.8195805208328716</v>
       </c>
       <c r="P7">
-        <v>0.04216891968544611</v>
+        <v>0.8195805208328716</v>
       </c>
       <c r="Q7">
-        <v>109.6201670342462</v>
+        <v>2051.733006662683</v>
       </c>
       <c r="R7">
-        <v>986.581503308216</v>
+        <v>18465.59705996414</v>
       </c>
       <c r="S7">
-        <v>0.005332184552196776</v>
+        <v>0.1122312904111871</v>
       </c>
       <c r="T7">
-        <v>0.005332184552196777</v>
+        <v>0.1122312904111871</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,10 +918,10 @@
         <v>239.481758</v>
       </c>
       <c r="I8">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620155</v>
       </c>
       <c r="J8">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620154</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>25.70216233333333</v>
+        <v>3.456060333333333</v>
       </c>
       <c r="N8">
-        <v>77.106487</v>
+        <v>10.368181</v>
       </c>
       <c r="O8">
-        <v>0.7892650295534415</v>
+        <v>0.1102055029957399</v>
       </c>
       <c r="P8">
-        <v>0.7892650295534415</v>
+        <v>0.1102055029957399</v>
       </c>
       <c r="Q8">
-        <v>2051.733006662683</v>
+        <v>275.8878014602442</v>
       </c>
       <c r="R8">
-        <v>18465.59705996414</v>
+        <v>2482.990213142198</v>
       </c>
       <c r="S8">
-        <v>0.09980115282930731</v>
+        <v>0.01509126375899802</v>
       </c>
       <c r="T8">
-        <v>0.09980115282930734</v>
+        <v>0.01509126375899802</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>239.481758</v>
       </c>
       <c r="I9">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620155</v>
       </c>
       <c r="J9">
-        <v>0.1264482133280045</v>
+        <v>0.1369374790620154</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,33 +992,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.08316866666666667</v>
+        <v>0.0405</v>
       </c>
       <c r="N9">
-        <v>0.249506</v>
+        <v>0.1215</v>
       </c>
       <c r="O9">
-        <v>0.00255395321620295</v>
+        <v>0.001291448192694785</v>
       </c>
       <c r="P9">
-        <v>0.00255395321620295</v>
+        <v>0.001291448192694784</v>
       </c>
       <c r="Q9">
-        <v>6.639126167949778</v>
+        <v>3.233003733</v>
       </c>
       <c r="R9">
-        <v>59.752135511548</v>
+        <v>29.097033597</v>
       </c>
       <c r="S9">
-        <v>0.0003229428211121738</v>
+        <v>0.0001768476598468198</v>
       </c>
       <c r="T9">
-        <v>0.0003229428211121739</v>
+        <v>0.0001768476598468197</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>79.82725266666667</v>
+        <v>148.824417</v>
       </c>
       <c r="H10">
-        <v>239.481758</v>
+        <v>446.473251</v>
       </c>
       <c r="I10">
-        <v>0.1264482133280045</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="J10">
-        <v>0.1264482133280045</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,43 +1054,43 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.234191333333333</v>
+        <v>2.161420333333333</v>
       </c>
       <c r="N10">
-        <v>15.702574</v>
+        <v>6.484261</v>
       </c>
       <c r="O10">
-        <v>0.1607321642363904</v>
+        <v>0.06892252797869364</v>
       </c>
       <c r="P10">
-        <v>0.1607321642363904</v>
+        <v>0.06892252797869362</v>
       </c>
       <c r="Q10">
-        <v>417.8311140716769</v>
+        <v>321.672121000279</v>
       </c>
       <c r="R10">
-        <v>3760.480026645092</v>
+        <v>2895.049089002511</v>
       </c>
       <c r="S10">
-        <v>0.02032429499203494</v>
+        <v>0.01759569939749971</v>
       </c>
       <c r="T10">
-        <v>0.02032429499203495</v>
+        <v>0.0175956993974997</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
       <c r="E11">
         <v>3</v>
       </c>
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>79.82725266666667</v>
+        <v>148.824417</v>
       </c>
       <c r="H11">
-        <v>239.481758</v>
+        <v>446.473251</v>
       </c>
       <c r="I11">
-        <v>0.1264482133280045</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="J11">
-        <v>0.1264482133280045</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.1719393333333333</v>
+        <v>25.70216233333333</v>
       </c>
       <c r="N11">
-        <v>0.515818</v>
+        <v>77.106487</v>
       </c>
       <c r="O11">
-        <v>0.005279933308519127</v>
+        <v>0.8195805208328716</v>
       </c>
       <c r="P11">
-        <v>0.005279933308519127</v>
+        <v>0.8195805208328716</v>
       </c>
       <c r="Q11">
-        <v>13.72544460533822</v>
+        <v>3825.109324897694</v>
       </c>
       <c r="R11">
-        <v>123.529001448044</v>
+        <v>34425.98392407924</v>
       </c>
       <c r="S11">
-        <v>0.000667638133353263</v>
+        <v>0.2092362671473617</v>
       </c>
       <c r="T11">
-        <v>0.0006676381333532631</v>
+        <v>0.2092362671473617</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>162.5116576666667</v>
+        <v>148.824417</v>
       </c>
       <c r="H12">
-        <v>487.534973</v>
+        <v>446.473251</v>
       </c>
       <c r="I12">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="J12">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>1.373217333333334</v>
+        <v>3.456060333333333</v>
       </c>
       <c r="N12">
-        <v>4.119652</v>
+        <v>10.368181</v>
       </c>
       <c r="O12">
-        <v>0.04216891968544611</v>
+        <v>0.1102055029957399</v>
       </c>
       <c r="P12">
-        <v>0.04216891968544611</v>
+        <v>0.1102055029957399</v>
       </c>
       <c r="Q12">
-        <v>223.1638251765996</v>
+        <v>514.346164225159</v>
       </c>
       <c r="R12">
-        <v>2008.474426589396</v>
+        <v>4629.115478026431</v>
       </c>
       <c r="S12">
-        <v>0.01085521700440445</v>
+        <v>0.02813510994928611</v>
       </c>
       <c r="T12">
-        <v>0.01085521700440446</v>
+        <v>0.02813510994928611</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,51 +1222,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>162.5116576666667</v>
+        <v>148.824417</v>
       </c>
       <c r="H13">
-        <v>487.534973</v>
+        <v>446.473251</v>
       </c>
       <c r="I13">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="J13">
-        <v>0.2574222219914007</v>
+        <v>0.2552967790580629</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>25.70216233333333</v>
+        <v>0.0405</v>
       </c>
       <c r="N13">
-        <v>77.106487</v>
+        <v>0.1215</v>
       </c>
       <c r="O13">
-        <v>0.7892650295534415</v>
+        <v>0.001291448192694785</v>
       </c>
       <c r="P13">
-        <v>0.7892650295534415</v>
+        <v>0.001291448192694784</v>
       </c>
       <c r="Q13">
-        <v>4176.901006407762</v>
+        <v>6.027388888500001</v>
       </c>
       <c r="R13">
-        <v>37592.10905766986</v>
+        <v>54.2464999965</v>
       </c>
       <c r="S13">
-        <v>0.2031743576477554</v>
+        <v>0.000329702563915335</v>
       </c>
       <c r="T13">
-        <v>0.2031743576477555</v>
+        <v>0.000329702563915335</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,7 +1275,7 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1284,51 +1284,51 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>162.5116576666667</v>
+        <v>35.426853</v>
       </c>
       <c r="H14">
-        <v>487.534973</v>
+        <v>106.280559</v>
       </c>
       <c r="I14">
-        <v>0.2574222219914007</v>
+        <v>0.06077202683121193</v>
       </c>
       <c r="J14">
-        <v>0.2574222219914007</v>
+        <v>0.06077202683121192</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.08316866666666667</v>
+        <v>2.161420333333333</v>
       </c>
       <c r="N14">
-        <v>0.249506</v>
+        <v>6.484261</v>
       </c>
       <c r="O14">
-        <v>0.00255395321620295</v>
+        <v>0.06892252797869364</v>
       </c>
       <c r="P14">
-        <v>0.00255395321620295</v>
+        <v>0.06892252797869362</v>
       </c>
       <c r="Q14">
-        <v>13.51587788592645</v>
+        <v>76.57232042021101</v>
       </c>
       <c r="R14">
-        <v>121.642900973338</v>
+        <v>689.150883781899</v>
       </c>
       <c r="S14">
-        <v>0.0006574443117770476</v>
+        <v>0.004188561719596124</v>
       </c>
       <c r="T14">
-        <v>0.0006574443117770478</v>
+        <v>0.004188561719596123</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,7 +1337,7 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>162.5116576666667</v>
+        <v>35.426853</v>
       </c>
       <c r="H15">
-        <v>487.534973</v>
+        <v>106.280559</v>
       </c>
       <c r="I15">
-        <v>0.2574222219914007</v>
+        <v>0.06077202683121193</v>
       </c>
       <c r="J15">
-        <v>0.2574222219914007</v>
+        <v>0.06077202683121192</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,33 +1364,33 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.234191333333333</v>
+        <v>25.70216233333333</v>
       </c>
       <c r="N15">
-        <v>15.702574</v>
+        <v>77.106487</v>
       </c>
       <c r="O15">
-        <v>0.1607321642363904</v>
+        <v>0.8195805208328716</v>
       </c>
       <c r="P15">
-        <v>0.1607321642363904</v>
+        <v>0.8195805208328716</v>
       </c>
       <c r="Q15">
-        <v>850.6171101245003</v>
+        <v>910.546726765137</v>
       </c>
       <c r="R15">
-        <v>7655.553991120502</v>
+        <v>8194.920540886233</v>
       </c>
       <c r="S15">
-        <v>0.04137603086321837</v>
+        <v>0.04980756940239392</v>
       </c>
       <c r="T15">
-        <v>0.04137603086321838</v>
+        <v>0.04980756940239391</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,7 +1399,7 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>162.5116576666667</v>
+        <v>35.426853</v>
       </c>
       <c r="H16">
-        <v>487.534973</v>
+        <v>106.280559</v>
       </c>
       <c r="I16">
-        <v>0.2574222219914007</v>
+        <v>0.06077202683121193</v>
       </c>
       <c r="J16">
-        <v>0.2574222219914007</v>
+        <v>0.06077202683121192</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.1719393333333333</v>
+        <v>3.456060333333333</v>
       </c>
       <c r="N16">
-        <v>0.515818</v>
+        <v>10.368181</v>
       </c>
       <c r="O16">
-        <v>0.005279933308519127</v>
+        <v>0.1102055029957399</v>
       </c>
       <c r="P16">
-        <v>0.005279933308519127</v>
+        <v>0.1102055029957399</v>
       </c>
       <c r="Q16">
-        <v>27.94214607810156</v>
+        <v>122.437341388131</v>
       </c>
       <c r="R16">
-        <v>251.479314702914</v>
+        <v>1101.936072493179</v>
       </c>
       <c r="S16">
-        <v>0.001359172164245402</v>
+        <v>0.006697411785004314</v>
       </c>
       <c r="T16">
-        <v>0.001359172164245402</v>
+        <v>0.006697411785004314</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1470,51 +1470,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>33.73857866666668</v>
+        <v>35.426853</v>
       </c>
       <c r="H17">
-        <v>101.215736</v>
+        <v>106.280559</v>
       </c>
       <c r="I17">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121193</v>
       </c>
       <c r="J17">
-        <v>0.05344268843173845</v>
+        <v>0.06077202683121192</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>1.373217333333334</v>
+        <v>0.0405</v>
       </c>
       <c r="N17">
-        <v>4.119652</v>
+        <v>0.1215</v>
       </c>
       <c r="O17">
-        <v>0.04216891968544611</v>
+        <v>0.001291448192694785</v>
       </c>
       <c r="P17">
-        <v>0.04216891968544611</v>
+        <v>0.001291448192694784</v>
       </c>
       <c r="Q17">
-        <v>46.3304010270969</v>
+        <v>1.4347875465</v>
       </c>
       <c r="R17">
-        <v>416.9736092438721</v>
+        <v>12.9130879185</v>
       </c>
       <c r="S17">
-        <v>0.002253620436252298</v>
+        <v>7.848392421756759E-05</v>
       </c>
       <c r="T17">
-        <v>0.002253620436252298</v>
+        <v>7.848392421756758E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,7 +1523,7 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>33.73857866666668</v>
+        <v>121.3248153333333</v>
       </c>
       <c r="H18">
-        <v>101.215736</v>
+        <v>363.974446</v>
       </c>
       <c r="I18">
-        <v>0.05344268843173845</v>
+        <v>0.2081233388901116</v>
       </c>
       <c r="J18">
-        <v>0.05344268843173845</v>
+        <v>0.2081233388901115</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,33 +1550,33 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>25.70216233333333</v>
+        <v>2.161420333333333</v>
       </c>
       <c r="N18">
-        <v>77.106487</v>
+        <v>6.484261</v>
       </c>
       <c r="O18">
-        <v>0.7892650295534415</v>
+        <v>0.06892252797869364</v>
       </c>
       <c r="P18">
-        <v>0.7892650295534415</v>
+        <v>0.06892252797869362</v>
       </c>
       <c r="Q18">
-        <v>867.1544257866038</v>
+        <v>262.2339227993785</v>
       </c>
       <c r="R18">
-        <v>7804.389832079434</v>
+        <v>2360.105305194406</v>
       </c>
       <c r="S18">
-        <v>0.04218044506449141</v>
+        <v>0.01434438664767285</v>
       </c>
       <c r="T18">
-        <v>0.04218044506449141</v>
+        <v>0.01434438664767285</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,7 +1585,7 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1594,51 +1594,51 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>33.73857866666668</v>
+        <v>121.3248153333333</v>
       </c>
       <c r="H19">
-        <v>101.215736</v>
+        <v>363.974446</v>
       </c>
       <c r="I19">
-        <v>0.05344268843173845</v>
+        <v>0.2081233388901116</v>
       </c>
       <c r="J19">
-        <v>0.05344268843173845</v>
+        <v>0.2081233388901115</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.08316866666666667</v>
+        <v>25.70216233333333</v>
       </c>
       <c r="N19">
-        <v>0.249506</v>
+        <v>77.106487</v>
       </c>
       <c r="O19">
-        <v>0.00255395321620295</v>
+        <v>0.8195805208328716</v>
       </c>
       <c r="P19">
-        <v>0.00255395321620295</v>
+        <v>0.8195805208328716</v>
       </c>
       <c r="Q19">
-        <v>2.805992602935112</v>
+        <v>3118.310098759022</v>
       </c>
       <c r="R19">
-        <v>25.253933426416</v>
+        <v>28064.7908888312</v>
       </c>
       <c r="S19">
-        <v>0.0001364901260027706</v>
+        <v>0.1705738344850339</v>
       </c>
       <c r="T19">
-        <v>0.0001364901260027706</v>
+        <v>0.1705738344850339</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>33.73857866666668</v>
+        <v>121.3248153333333</v>
       </c>
       <c r="H20">
-        <v>101.215736</v>
+        <v>363.974446</v>
       </c>
       <c r="I20">
-        <v>0.05344268843173845</v>
+        <v>0.2081233388901116</v>
       </c>
       <c r="J20">
-        <v>0.05344268843173845</v>
+        <v>0.2081233388901115</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,33 +1674,33 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.234191333333333</v>
+        <v>3.456060333333333</v>
       </c>
       <c r="N20">
-        <v>15.702574</v>
+        <v>10.368181</v>
       </c>
       <c r="O20">
-        <v>0.1607321642363904</v>
+        <v>0.1102055029957399</v>
       </c>
       <c r="P20">
-        <v>0.1607321642363904</v>
+        <v>0.1102055029957399</v>
       </c>
       <c r="Q20">
-        <v>176.5941760560516</v>
+        <v>419.3058817225251</v>
       </c>
       <c r="R20">
-        <v>1589.347584504464</v>
+        <v>3773.752935502726</v>
       </c>
       <c r="S20">
-        <v>0.008589958974244426</v>
+        <v>0.02293633724753759</v>
       </c>
       <c r="T20">
-        <v>0.008589958974244426</v>
+        <v>0.02293633724753759</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1718,356 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>33.73857866666668</v>
+        <v>121.3248153333333</v>
       </c>
       <c r="H21">
-        <v>101.215736</v>
+        <v>363.974446</v>
       </c>
       <c r="I21">
-        <v>0.05344268843173845</v>
+        <v>0.2081233388901116</v>
       </c>
       <c r="J21">
-        <v>0.05344268843173845</v>
+        <v>0.2081233388901115</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.1719393333333333</v>
+        <v>0.0405</v>
       </c>
       <c r="N21">
-        <v>0.515818</v>
+        <v>0.1215</v>
       </c>
       <c r="O21">
-        <v>0.005279933308519127</v>
+        <v>0.001291448192694785</v>
       </c>
       <c r="P21">
-        <v>0.005279933308519127</v>
+        <v>0.001291448192694784</v>
       </c>
       <c r="Q21">
-        <v>5.800988723560891</v>
+        <v>4.913655021</v>
       </c>
       <c r="R21">
-        <v>52.20889851204801</v>
+        <v>44.222895189</v>
       </c>
       <c r="S21">
-        <v>0.0002821738307475457</v>
+        <v>0.0002687805098672387</v>
       </c>
       <c r="T21">
-        <v>0.0002821738307475457</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>159.7910413333333</v>
-      </c>
-      <c r="H22">
-        <v>479.373124</v>
-      </c>
-      <c r="I22">
-        <v>0.2531127028358625</v>
-      </c>
-      <c r="J22">
-        <v>0.2531127028358626</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M22">
-        <v>1.373217333333334</v>
-      </c>
-      <c r="N22">
-        <v>4.119652</v>
-      </c>
-      <c r="O22">
-        <v>0.04216891968544611</v>
-      </c>
-      <c r="P22">
-        <v>0.04216891968544611</v>
-      </c>
-      <c r="Q22">
-        <v>219.4278276703165</v>
-      </c>
-      <c r="R22">
-        <v>1974.850449032848</v>
-      </c>
-      <c r="S22">
-        <v>0.01067348923725167</v>
-      </c>
-      <c r="T22">
-        <v>0.01067348923725168</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>159.7910413333333</v>
-      </c>
-      <c r="H23">
-        <v>479.373124</v>
-      </c>
-      <c r="I23">
-        <v>0.2531127028358625</v>
-      </c>
-      <c r="J23">
-        <v>0.2531127028358626</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>25.70216233333333</v>
-      </c>
-      <c r="N23">
-        <v>77.106487</v>
-      </c>
-      <c r="O23">
-        <v>0.7892650295534415</v>
-      </c>
-      <c r="P23">
-        <v>0.7892650295534415</v>
-      </c>
-      <c r="Q23">
-        <v>4106.97528376171</v>
-      </c>
-      <c r="R23">
-        <v>36962.77755385539</v>
-      </c>
-      <c r="S23">
-        <v>0.1997730048840985</v>
-      </c>
-      <c r="T23">
-        <v>0.1997730048840985</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>159.7910413333333</v>
-      </c>
-      <c r="H24">
-        <v>479.373124</v>
-      </c>
-      <c r="I24">
-        <v>0.2531127028358625</v>
-      </c>
-      <c r="J24">
-        <v>0.2531127028358626</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M24">
-        <v>0.08316866666666667</v>
-      </c>
-      <c r="N24">
-        <v>0.249506</v>
-      </c>
-      <c r="O24">
-        <v>0.00255395321620295</v>
-      </c>
-      <c r="P24">
-        <v>0.00255395321620295</v>
-      </c>
-      <c r="Q24">
-        <v>13.28960785297156</v>
-      </c>
-      <c r="R24">
-        <v>119.606470676744</v>
-      </c>
-      <c r="S24">
-        <v>0.0006464380014694727</v>
-      </c>
-      <c r="T24">
-        <v>0.0006464380014694728</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>159.7910413333333</v>
-      </c>
-      <c r="H25">
-        <v>479.373124</v>
-      </c>
-      <c r="I25">
-        <v>0.2531127028358625</v>
-      </c>
-      <c r="J25">
-        <v>0.2531127028358626</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>5.234191333333333</v>
-      </c>
-      <c r="N25">
-        <v>15.702574</v>
-      </c>
-      <c r="O25">
-        <v>0.1607321642363904</v>
-      </c>
-      <c r="P25">
-        <v>0.1607321642363904</v>
-      </c>
-      <c r="Q25">
-        <v>836.3768836912418</v>
-      </c>
-      <c r="R25">
-        <v>7527.391953221177</v>
-      </c>
-      <c r="S25">
-        <v>0.04068335252253054</v>
-      </c>
-      <c r="T25">
-        <v>0.04068335252253055</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>159.7910413333333</v>
-      </c>
-      <c r="H26">
-        <v>479.373124</v>
-      </c>
-      <c r="I26">
-        <v>0.2531127028358625</v>
-      </c>
-      <c r="J26">
-        <v>0.2531127028358626</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M26">
-        <v>0.1719393333333333</v>
-      </c>
-      <c r="N26">
-        <v>0.515818</v>
-      </c>
-      <c r="O26">
-        <v>0.005279933308519127</v>
-      </c>
-      <c r="P26">
-        <v>0.005279933308519127</v>
-      </c>
-      <c r="Q26">
-        <v>27.47436511949245</v>
-      </c>
-      <c r="R26">
-        <v>247.269286075432</v>
-      </c>
-      <c r="S26">
-        <v>0.001336418190512374</v>
-      </c>
-      <c r="T26">
-        <v>0.001336418190512375</v>
+        <v>0.0002687805098672386</v>
       </c>
     </row>
   </sheetData>
